--- a/Saved_file/EM002/2026_12/sap_data.xlsx
+++ b/Saved_file/EM002/2026_12/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-12-17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST3341</t>
+          <t>CUST1841</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16428970</v>
+        <v>17985232</v>
       </c>
       <c r="E2" t="n">
-        <v>2924625</v>
+        <v>3265105</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -524,12 +524,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-12-12</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST8887</t>
+          <t>CUST9453</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11590710</v>
+        <v>9515913</v>
       </c>
       <c r="E3" t="n">
-        <v>1955036</v>
+        <v>1111994</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-12-26</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST6694</t>
+          <t>CUST6724</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8096751</v>
+        <v>16077297</v>
       </c>
       <c r="E4" t="n">
-        <v>1229971</v>
+        <v>2038933</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST7344</t>
+          <t>CUST5416</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14426854</v>
+        <v>12109894</v>
       </c>
       <c r="E5" t="n">
-        <v>2870305</v>
+        <v>1294087</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST4566</t>
+          <t>CUST4947</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>24580488</v>
+        <v>15401903</v>
       </c>
       <c r="E6" t="n">
-        <v>4255745</v>
+        <v>1973621</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-12-05</t>
+          <t>2026-12-13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST6694</t>
+          <t>CUST3923</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17549651</v>
+        <v>18245454</v>
       </c>
       <c r="E7" t="n">
-        <v>2201568</v>
+        <v>2909291</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2026-12-01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST7737</t>
+          <t>CUST3532</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14004251</v>
+        <v>23499570</v>
       </c>
       <c r="E8" t="n">
-        <v>1905980</v>
+        <v>2946365</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-12-27</t>
+          <t>2026-12-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST8887</t>
+          <t>CUST7686</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11017073</v>
+        <v>16463548</v>
       </c>
       <c r="E9" t="n">
-        <v>1374100</v>
+        <v>2645885</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-12-04</t>
+          <t>2026-12-25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST7344</t>
+          <t>CUST7686</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24896897</v>
+        <v>9334402</v>
       </c>
       <c r="E10" t="n">
-        <v>3412383</v>
+        <v>1671333</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST5993</t>
+          <t>CUST9304</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10164874</v>
+        <v>14968769</v>
       </c>
       <c r="E11" t="n">
-        <v>1060486</v>
+        <v>2572601</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,12 +1010,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-12-08</t>
+          <t>2026-12-16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST8938</t>
+          <t>CUST5881</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19568848</v>
+        <v>10920380</v>
       </c>
       <c r="E12" t="n">
-        <v>3587232</v>
+        <v>1116225</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,12 +1064,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST1393</t>
+          <t>CUST4816</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>21363616</v>
+        <v>10502879</v>
       </c>
       <c r="E13" t="n">
-        <v>3661159</v>
+        <v>1797403</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST2770</t>
+          <t>CUST6321</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20624582</v>
+        <v>10742539</v>
       </c>
       <c r="E14" t="n">
-        <v>3089652</v>
+        <v>1160380</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1194,25 +1194,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST4566</t>
+          <t>CUST7259</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17420524</v>
+        <v>20233556</v>
       </c>
       <c r="E15" t="n">
-        <v>3075263</v>
+        <v>2049169</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1248,25 +1248,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST8938</t>
+          <t>CUST8556</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15857845</v>
+        <v>12101112</v>
       </c>
       <c r="E16" t="n">
-        <v>2703842</v>
+        <v>2145557</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1302,25 +1302,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-12-17</t>
+          <t>2026-12-23</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST4615</t>
+          <t>CUST4816</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>21928152</v>
+        <v>12297455</v>
       </c>
       <c r="E17" t="n">
-        <v>3292567</v>
+        <v>1447457</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-12-22</t>
+          <t>2026-12-23</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST4640</t>
+          <t>CUST8556</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>23761765</v>
+        <v>15748774</v>
       </c>
       <c r="E18" t="n">
-        <v>3349503</v>
+        <v>2526376</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST6694</t>
+          <t>CUST6280</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12805444</v>
+        <v>11832497</v>
       </c>
       <c r="E19" t="n">
-        <v>1750024</v>
+        <v>2301230</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-12-09</t>
+          <t>2026-12-11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST5980</t>
+          <t>CUST6280</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>24128344</v>
+        <v>18295384</v>
       </c>
       <c r="E20" t="n">
-        <v>3881228</v>
+        <v>2449414</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-12-04</t>
+          <t>2026-12-12</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST6478</t>
+          <t>CUST5955</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>24897619</v>
+        <v>14945893</v>
       </c>
       <c r="E21" t="n">
-        <v>3936869</v>
+        <v>2584690</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-19</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST2893</t>
+          <t>CUST8694</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>17297355</v>
+        <v>18692491</v>
       </c>
       <c r="E22" t="n">
-        <v>2889011</v>
+        <v>2218217</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-12-27</t>
+          <t>2026-12-12</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST7666</t>
+          <t>CUST1568</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>16583596</v>
+        <v>20199589</v>
       </c>
       <c r="E23" t="n">
-        <v>3307022</v>
+        <v>3545755</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,17 +1658,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1680,29 +1680,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-28</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST3487</t>
+          <t>CUST2087</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14597044</v>
+        <v>19672744</v>
       </c>
       <c r="E24" t="n">
-        <v>2713203</v>
+        <v>3798593</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST3674</t>
+          <t>CUST7868</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14321441</v>
+        <v>10255434</v>
       </c>
       <c r="E25" t="n">
-        <v>2627347</v>
+        <v>1117309</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1766,17 +1766,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-02</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST8023</t>
+          <t>CUST5719</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9077039</v>
+        <v>10974806</v>
       </c>
       <c r="E26" t="n">
-        <v>1555398</v>
+        <v>1796343</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2026-12-28</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST7692</t>
+          <t>CUST8063</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>23304445</v>
+        <v>8591172</v>
       </c>
       <c r="E27" t="n">
-        <v>2637144</v>
+        <v>1486188</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1874,17 +1874,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-12-04</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST4640</t>
+          <t>CUST4947</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>19611868</v>
+        <v>19868179</v>
       </c>
       <c r="E28" t="n">
-        <v>3578570</v>
+        <v>2265543</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-12-22</t>
+          <t>2026-12-27</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST4566</t>
+          <t>CUST6430</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>13766541</v>
+        <v>19120202</v>
       </c>
       <c r="E29" t="n">
-        <v>2329367</v>
+        <v>2741254</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1982,17 +1982,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST3714</t>
+          <t>CUST8703</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>19135976</v>
+        <v>23638921</v>
       </c>
       <c r="E30" t="n">
-        <v>3111975</v>
+        <v>3207635</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2041,12 +2041,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2058,25 +2058,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-25</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST1901</t>
+          <t>CUST3563</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>14362753</v>
+        <v>12165188</v>
       </c>
       <c r="E31" t="n">
-        <v>2504468</v>
+        <v>1324808</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2112,25 +2112,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-12-17</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST1472</t>
+          <t>CUST9368</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>18193930</v>
+        <v>19677021</v>
       </c>
       <c r="E32" t="n">
-        <v>2251516</v>
+        <v>2242058</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2144,17 +2144,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-03</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST2901</t>
+          <t>CUST5114</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>12986700</v>
+        <v>13364810</v>
       </c>
       <c r="E33" t="n">
-        <v>2504829</v>
+        <v>2053432</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-12-13</t>
+          <t>2026-12-21</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST7666</t>
+          <t>CUST5719</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>16600637</v>
+        <v>20316563</v>
       </c>
       <c r="E34" t="n">
-        <v>2915330</v>
+        <v>3362984</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2252,12 +2252,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2274,25 +2274,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-12-04</t>
+          <t>2026-12-20</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST1472</t>
+          <t>CUST3481</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>23207169</v>
+        <v>10517641</v>
       </c>
       <c r="E35" t="n">
-        <v>3714866</v>
+        <v>1755725</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-16</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST4634</t>
+          <t>CUST7868</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10101541</v>
+        <v>9437853</v>
       </c>
       <c r="E36" t="n">
-        <v>1124916</v>
+        <v>1700982</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2360,12 +2360,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-12-12</t>
+          <t>2026-12-22</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST5905</t>
+          <t>CUST2978</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>12565282</v>
+        <v>22162639</v>
       </c>
       <c r="E37" t="n">
-        <v>1537451</v>
+        <v>2257599</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-12-01</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST2737</t>
+          <t>CUST5719</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>22019752</v>
+        <v>12737885</v>
       </c>
       <c r="E38" t="n">
-        <v>2907083</v>
+        <v>2045985</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2490,25 +2490,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST6745</t>
+          <t>CUST4074</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>22294021</v>
+        <v>16261211</v>
       </c>
       <c r="E39" t="n">
-        <v>2949631</v>
+        <v>1919455</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-12-20</t>
+          <t>2026-12-23</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST4640</t>
+          <t>CUST2338</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>20881457</v>
+        <v>21975214</v>
       </c>
       <c r="E40" t="n">
-        <v>2798537</v>
+        <v>4202488</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2598,25 +2598,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-12-08</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST2901</t>
+          <t>CUST8468</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>11722460</v>
+        <v>10013415</v>
       </c>
       <c r="E41" t="n">
-        <v>1954268</v>
+        <v>1624108</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-12-01</t>
+          <t>2026-12-02</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST6478</t>
+          <t>CUST2496</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>20159435</v>
+        <v>24699170</v>
       </c>
       <c r="E42" t="n">
-        <v>2944480</v>
+        <v>4284018</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2684,17 +2684,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST1393</t>
+          <t>CUST1432</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>18578702</v>
+        <v>8376521</v>
       </c>
       <c r="E43" t="n">
-        <v>2242998</v>
+        <v>997181</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,12 +2738,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-12-26</t>
+          <t>2026-12-19</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST2893</t>
+          <t>CUST4074</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>22458232</v>
+        <v>15936138</v>
       </c>
       <c r="E44" t="n">
-        <v>4487637</v>
+        <v>2824209</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2814,25 +2814,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-04</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST5770</t>
+          <t>CUST8694</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>23933917</v>
+        <v>8783105</v>
       </c>
       <c r="E45" t="n">
-        <v>2534226</v>
+        <v>1360196</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-12-24</t>
+          <t>2026-12-16</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST4205</t>
+          <t>CUST6430</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>17275873</v>
+        <v>14732552</v>
       </c>
       <c r="E46" t="n">
-        <v>3276518</v>
+        <v>1657158</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2922,25 +2922,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-12-01</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST2901</t>
+          <t>CUST1432</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12622222</v>
+        <v>21200567</v>
       </c>
       <c r="E47" t="n">
-        <v>1925267</v>
+        <v>2842852</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2959,12 +2959,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-12-31</t>
+          <t>2026-12-02</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST4634</t>
+          <t>CUST8703</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>16816661</v>
+        <v>8107608</v>
       </c>
       <c r="E48" t="n">
-        <v>3210679</v>
+        <v>843648</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-12-30</t>
+          <t>2026-12-03</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST5980</t>
+          <t>CUST9368</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>12062927</v>
+        <v>9729530</v>
       </c>
       <c r="E49" t="n">
-        <v>1509973</v>
+        <v>1348843</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3062,17 +3062,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3084,25 +3084,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-12-19</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST9803</t>
+          <t>CUST9182</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13997054</v>
+        <v>22252773</v>
       </c>
       <c r="E50" t="n">
-        <v>2621504</v>
+        <v>4054370</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3138,25 +3138,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-12-08</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST7862</t>
+          <t>CUST2794</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23242902</v>
+        <v>19080563</v>
       </c>
       <c r="E51" t="n">
-        <v>4237686</v>
+        <v>3040127</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3170,12 +3170,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3192,29 +3192,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-12-21</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST5308</t>
+          <t>CUST8468</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13567770</v>
+        <v>14675171</v>
       </c>
       <c r="E52" t="n">
-        <v>2610971</v>
+        <v>1501045</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-02</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST7666</t>
+          <t>CUST1432</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>9710480</v>
+        <v>16934184</v>
       </c>
       <c r="E53" t="n">
-        <v>1029003</v>
+        <v>1960864</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-12-02</t>
+          <t>2026-12-27</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST3161</t>
+          <t>CUST3923</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>19073622</v>
+        <v>18679607</v>
       </c>
       <c r="E54" t="n">
-        <v>2516701</v>
+        <v>1977291</v>
       </c>
       <c r="F54" t="n">
         <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-12-17</t>
+          <t>2026-12-04</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST9442</t>
+          <t>CUST5955</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>23654706</v>
+        <v>19691636</v>
       </c>
       <c r="E55" t="n">
-        <v>4623672</v>
+        <v>2432252</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3391,12 +3391,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3413,24 +3413,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST6694</t>
+          <t>CUST9304</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>15971685</v>
+        <v>24737871</v>
       </c>
       <c r="E56" t="n">
-        <v>1674513</v>
+        <v>4660053</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-12-28</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST1393</t>
+          <t>CUST2786</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>17016114</v>
+        <v>20596523</v>
       </c>
       <c r="E57" t="n">
-        <v>3021887</v>
+        <v>2292350</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3494,17 +3494,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-12-24</t>
+          <t>2026-12-22</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST6745</t>
+          <t>CUST4797</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>17951860</v>
+        <v>17925227</v>
       </c>
       <c r="E58" t="n">
-        <v>2903664</v>
+        <v>3492299</v>
       </c>
       <c r="F58" t="n">
         <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-12-28</t>
+          <t>2026-12-02</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST4566</t>
+          <t>CUST2794</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>16451503</v>
+        <v>22243502</v>
       </c>
       <c r="E59" t="n">
-        <v>1699809</v>
+        <v>2733618</v>
       </c>
       <c r="F59" t="n">
         <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,17 +3602,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3624,29 +3624,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-12-05</t>
+          <t>2026-12-22</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST1472</t>
+          <t>CUST2000</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>17667468</v>
+        <v>19151390</v>
       </c>
       <c r="E60" t="n">
-        <v>3208514</v>
+        <v>3543294</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST5768</t>
+          <t>CUST5745</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>13193220</v>
+        <v>18596237</v>
       </c>
       <c r="E61" t="n">
-        <v>1428305</v>
+        <v>2154167</v>
       </c>
       <c r="F61" t="n">
         <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3710,17 +3710,17 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3777,16 +3777,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>9878054</v>
+        <v>13460645</v>
       </c>
       <c r="E2" t="n">
-        <v>2847811</v>
+        <v>2860135</v>
       </c>
     </row>
     <row r="3">
@@ -3796,16 +3796,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.8</v>
+        <v>62.6</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>11105161</v>
+        <v>5202189</v>
       </c>
       <c r="E3" t="n">
-        <v>3012027</v>
+        <v>688084</v>
       </c>
     </row>
     <row r="4">
@@ -3821,10 +3821,10 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2250423</v>
+        <v>3653176</v>
       </c>
       <c r="E4" t="n">
-        <v>629415</v>
+        <v>1080002</v>
       </c>
     </row>
     <row r="5">
@@ -3834,16 +3834,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79.8</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>10077580</v>
+        <v>7126600</v>
       </c>
       <c r="E5" t="n">
-        <v>2708332</v>
+        <v>1923825</v>
       </c>
     </row>
     <row r="6">
@@ -3872,16 +3872,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>6775761</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1041984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3891,16 +3891,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.8</v>
+        <v>64</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>5212272</v>
+        <v>5767502</v>
       </c>
       <c r="E8" t="n">
-        <v>932872</v>
+        <v>1272319</v>
       </c>
     </row>
     <row r="9">
@@ -3910,16 +3910,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.3</v>
+        <v>76.8</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>1655513</v>
+        <v>9975236</v>
       </c>
       <c r="E9" t="n">
-        <v>317895</v>
+        <v>1786687</v>
       </c>
     </row>
     <row r="10">
@@ -3929,16 +3929,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.09999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>9521977</v>
+        <v>4254373</v>
       </c>
       <c r="E10" t="n">
-        <v>1471203</v>
+        <v>434643</v>
       </c>
     </row>
     <row r="11">
@@ -3948,16 +3948,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67.3</v>
+        <v>78.5</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>5521490</v>
+        <v>9256067</v>
       </c>
       <c r="E11" t="n">
-        <v>1225800</v>
+        <v>1066777</v>
       </c>
     </row>
     <row r="12">
@@ -3967,16 +3967,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78.7</v>
+        <v>60.7</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>3405754</v>
+        <v>8100848</v>
       </c>
       <c r="E12" t="n">
-        <v>393272</v>
+        <v>2324212</v>
       </c>
     </row>
     <row r="13">
@@ -3986,16 +3986,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>6371622</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1442761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4005,16 +4005,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.90000000000001</v>
+        <v>61.2</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>6779458</v>
+        <v>4114300</v>
       </c>
       <c r="E14" t="n">
-        <v>1791716</v>
+        <v>750800</v>
       </c>
     </row>
     <row r="15">
@@ -4024,16 +4024,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.40000000000001</v>
+        <v>62.4</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>14611270</v>
+        <v>3200895</v>
       </c>
       <c r="E15" t="n">
-        <v>1628034</v>
+        <v>384804</v>
       </c>
     </row>
     <row r="16">
@@ -4043,16 +4043,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.8</v>
+        <v>65.5</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>9397140</v>
+        <v>6534825</v>
       </c>
       <c r="E16" t="n">
-        <v>1848368</v>
+        <v>1611006</v>
       </c>
     </row>
     <row r="17">
@@ -4062,16 +4062,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.8</v>
+        <v>72.5</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7293953</v>
+        <v>7721640</v>
       </c>
       <c r="E17" t="n">
-        <v>1721570</v>
+        <v>2285281</v>
       </c>
     </row>
     <row r="18">
@@ -4081,16 +4081,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.8</v>
+        <v>78.7</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>5280846</v>
+        <v>6761910</v>
       </c>
       <c r="E18" t="n">
-        <v>1288475</v>
+        <v>1719358</v>
       </c>
     </row>
     <row r="19">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>5526023</v>
+        <v>10266375</v>
       </c>
       <c r="E19" t="n">
-        <v>1599980</v>
+        <v>2393004</v>
       </c>
     </row>
     <row r="20">
@@ -4138,16 +4138,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>71.3</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1545447</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>440943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4157,16 +4157,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.09999999999999</v>
+        <v>63.7</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4387043</v>
+        <v>7555087</v>
       </c>
       <c r="E22" t="n">
-        <v>1274503</v>
+        <v>2065014</v>
       </c>
     </row>
     <row r="23">
@@ -4176,16 +4176,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>65</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>5265223</v>
+        <v>7668875</v>
       </c>
       <c r="E23" t="n">
-        <v>1468287</v>
+        <v>921463</v>
       </c>
     </row>
     <row r="24">
@@ -4195,16 +4195,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>70.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>2398132</v>
+        <v>3448366</v>
       </c>
       <c r="E24" t="n">
-        <v>468584</v>
+        <v>508076</v>
       </c>
     </row>
     <row r="25">
@@ -4214,16 +4214,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>4236833</v>
+        <v>1779678</v>
       </c>
       <c r="E25" t="n">
-        <v>957082</v>
+        <v>351647</v>
       </c>
     </row>
     <row r="26">
@@ -4233,16 +4233,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>65.5</v>
+        <v>62.7</v>
       </c>
       <c r="C26" t="n">
         <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>9573107</v>
+        <v>14511259</v>
       </c>
       <c r="E26" t="n">
-        <v>2565679</v>
+        <v>3166019</v>
       </c>
     </row>
     <row r="27">
@@ -4271,16 +4271,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>63.9</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3838381</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1074930</v>
       </c>
     </row>
     <row r="29">
@@ -4290,16 +4290,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>68.90000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>2098362</v>
+        <v>9795371</v>
       </c>
       <c r="E29" t="n">
-        <v>235877</v>
+        <v>2182781</v>
       </c>
     </row>
     <row r="30">
@@ -4309,16 +4309,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.2</v>
+        <v>76</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>14417114</v>
+        <v>8019918</v>
       </c>
       <c r="E30" t="n">
-        <v>3794115</v>
+        <v>848705</v>
       </c>
     </row>
     <row r="31">
@@ -4328,16 +4328,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78</v>
+        <v>72.8</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>11605187</v>
+        <v>2594870</v>
       </c>
       <c r="E31" t="n">
-        <v>2774013</v>
+        <v>667205</v>
       </c>
     </row>
     <row r="32">
@@ -4347,16 +4347,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>67.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>10392067</v>
+        <v>16951972</v>
       </c>
       <c r="E32" t="n">
-        <v>1775349</v>
+        <v>3854926</v>
       </c>
     </row>
   </sheetData>
